--- a/output/unmatched_children.xlsx
+++ b/output/unmatched_children.xlsx
@@ -427,10 +427,10 @@
     <t>Theo Kearon</t>
   </si>
   <si>
-    <t>2025-05-01 10:56:38</t>
-  </si>
-  <si>
-    <t>wolketich</t>
+    <t>2025-05-01 10:03:02</t>
+  </si>
+  <si>
+    <t>wolketichif</t>
   </si>
 </sst>
 </file>
